--- a/pred_ohlcv/54_21/2020-01-16 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BTT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5644854.082499999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4473694.043599999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-28574076.15653821</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-28376100.25933821</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-25190596.25933821</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-25190596.25933821</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-25190596.25933821</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-26743199.64353821</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-26476101.83793821</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-26608636.46333821</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-26520146.73933821</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-26741841.07103821</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-26741841.07103821</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-26800625.17693821</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-29525764.76843821</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-29129834.75143821</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-29129834.75143821</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-29129834.75143821</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-30606181.43333821</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-30606181.43333821</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-30599434.4308382</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-30701177.15343821</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-30151955.92683821</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-30044310.72683821</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-30045819.03713821</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-29498922.67403821</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-29496575.19153821</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-34496575.19153821</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-30610324.60253821</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-30711856.33963821</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-30111856.33963821</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-25395286.90283821</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-21959521.90283821</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-22051601.52663821</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-50379702.06413821</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-42067045.24503821</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-43050745.24503821</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-40766951.10303821</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-37534948.87943821</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-37647182.54953822</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-37397057.51203822</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-33793359.88053822</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-37291824.46623822</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-36174804.56493822</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-32437970.38820443</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-32497882.24690443</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-32497882.24690443</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-32497882.24690443</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-29909580.73850442</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-29056414.35210443</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-28522357.01530442</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-28522357.01530442</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-31232954.84130443</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-30399450.10210443</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-25873335.81140443</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-37889445.53520443</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-42680255.28038426</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-41680255.28038426</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-41285412.30668426</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>63492835.1342116</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>59885381.2309116</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>51599569.20717039</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>95066638.57066986</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>113743891.5605704</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>112551849.2390704</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>119457051.0446704</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>149325025.4232704</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>150458152.0396411</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>151770481.0136411</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>155839755.9077412</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>161173100.8292412</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>168685369.8880115</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>179188298.6156285</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>174429769.4847785</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>172726499.8102785</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>148208643.9424785</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>143165430.4635785</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>132596936.0753785</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>116584656.1030785</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>120460120.7289785</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>120456220.7289785</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>117414347.5705785</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>110773718.6515785</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>115388626.277074</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>85561746.37777403</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>70618872.12622096</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>129376438.3072132</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>130840724.3945132</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>116024395.9704132</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>110971491.8264132</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>110523953.8264132</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>106827931.3010132</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>108544309.8532132</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>110299438.3194132</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>110278055.1356132</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>110279277.1892132</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>110275559.1212132</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>111319328.4262132</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>101927271.5219132</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>166430521.3607168</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>166433499.6961168</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>156863743.9914168</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>157650282.7214168</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>157412228.5806168</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>157348288.3692168</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>157349520.8598168</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>157274715.3692168</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>157279541.4691168</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>142862597.9651168</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>138960514.9334168</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>138971860.6416168</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>138961860.6416168</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>138925172.6416168</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>138770690.6416168</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>138770690.6416168</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>134692724.8725168</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>117739292.0091916</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>120914942.1077917</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>120914942.1077917</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>119372081.7886917</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>121831502.9945917</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>113178555.1989917</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>112872714.4121917</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>115582569.9350917</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>115580110.8982917</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>115580110.8982917</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>118736436.5456917</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>116665171.2078596</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>116459001.8956596</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>122814667.8932596</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>121940574.8993596</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>121940574.8993596</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>122060767.2070519</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>118128127.2070519</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>117684108.3448519</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>118615172.4249519</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>125310408.4258519</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>125301356.6630519</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>135377386.8391519</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>139990192.7842519</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>137254593.8135519</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>134322015.2544519</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>131941064.7498519</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>132170685.3674519</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>132170685.3674519</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>128845187.5825519</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>128461669.4130519</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>113405674.4315519</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>139533604.7299519</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>133680403.6187519</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>133682541.0732519</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>133682541.0732519</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>133669052.6159519</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>135677075.0624451</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>133846032.3759451</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>133926974.2395451</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>134528727.2814451</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>132134983.1509001</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>132140885.2489001</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>131732961.2566001</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>131728551.2566001</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>131707156.1052001</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>129622097.4116001</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>130242585.9707001</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>127505106.3588001</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>113914999.3063001</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>113930655.2521001</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>113934117.9400001</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>114027158.7359001</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>113036056.9195001</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>116009362.3687001</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>116021462.3827001</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>113594198.1174001</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>113605181.7456001</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>113585200.4863001</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>113585200.4863001</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>115213656.9444001</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>115621282.8720001</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>116864281.6546001</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>116894281.6546001</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>119126333.9851001</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>109730049.0711001</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>111115085.2206001</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>111115085.2206001</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>113748877.7901001</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>112219781.3973001</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>112219781.3973001</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>110500187.6025001</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>109525306.2223001</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>133336521.4487093</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>114707383.8824186</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>105010640.5905186</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>101395022.1660186</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>105057688.0912186</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>102827880.3903186</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>102936838.4532232</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>87356824.14212321</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>80406262.41512321</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>80406262.41512321</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>60701500.49902321</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>62629499.82382321</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 BTT ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-26743199.64353821</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-26476101.83793821</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-26608636.46333821</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-26800625.17693821</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-29129834.75143821</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-30606181.43333821</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-30606181.43333821</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-30599434.4308382</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-30701177.15343821</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-30151955.92683821</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-30044310.72683821</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-30045819.03713821</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-29498922.67403821</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-29496575.19153821</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-34496575.19153821</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-30610324.60253821</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-30711856.33963821</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-30111856.33963821</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-30102874.02163821</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-27906031.91663821</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-27906031.91663821</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-28807418.87363821</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-24850030.63243821</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-25395286.90283821</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-42067045.24503821</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-43050745.24503821</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-40766951.10303821</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-41898997.70483822</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-41898997.70483822</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-37534948.87943821</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-37647182.54953822</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-37397057.51203822</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-35013865.80333821</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-33793359.88053822</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-37291824.46623822</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-36174804.56493822</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-32437970.38820443</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-32497882.24690443</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-32497882.24690443</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-32497882.24690443</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-29909580.73850442</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-29056414.35210443</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-28522357.01530442</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-28522357.01530442</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-31232954.84130443</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-30399450.10210443</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-25873335.81140443</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-25076959.81140443</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2297108.130704425</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>63492835.1342116</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>59885381.2309116</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>51599569.20717039</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>95066638.57066986</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>113743891.5605704</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>112551849.2390704</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>119457051.0446704</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>149325025.4232704</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>150458152.0396411</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>151770481.0136411</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>155839755.9077412</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>161173100.8292412</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>168685369.8880115</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>179188298.6156285</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>174429769.4847785</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>172726499.8102785</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>148208643.9424785</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>143165430.4635785</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>132596936.0753785</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>116584656.1030785</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>120460120.7289785</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>120456220.7289785</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>117414347.5705785</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>110773718.6515785</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>115388626.277074</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>85561746.37777403</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>70618872.12622096</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>85447203.71736583</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>78894997.54316583</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>81046493.93246584</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>124661690.5907658</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>159172558.7902895</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>129376438.3072132</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>130840724.3945132</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>116024395.9704132</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>110971491.8264132</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>110523953.8264132</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>106827931.3010132</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>108544309.8532132</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>110004847.3922132</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>110299438.3194132</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>110278055.1356132</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>110279277.1892132</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>110281800.6874132</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>110275559.1212132</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>111319328.4262132</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>101927271.5219132</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>93898673.92541325</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>92748258.26031326</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>49104830.02147988</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>166430521.3607168</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>166433499.6961168</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>156863743.9914168</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>157650282.7214168</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>157412228.5806168</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>157348288.3692168</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>157349520.8598168</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>157274715.3692168</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>157279541.4691168</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>142862597.9651168</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>138960514.9334168</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>138971860.6416168</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>138961860.6416168</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>138925172.6416168</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>138770690.6416168</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>138770690.6416168</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>134692724.8725168</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>111485797.2768843</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>111485797.2768843</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>111485797.2768843</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>111310773.3891843</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>119030084.7838916</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>117739292.0091916</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>118064199.1068916</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>118027903.5261917</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>120686633.4560917</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>120914942.1077917</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>120914942.1077917</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>120914942.1077917</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>119372081.7886917</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>121831502.9945917</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>113178555.1989917</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>112872714.4121917</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>115582569.9350917</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>115580110.8982917</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>115580110.8982917</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>118736436.5456917</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>116665171.2078596</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>116459001.8956596</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>122814667.8932596</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>121940574.8993596</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>121940574.8993596</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>122060767.2070519</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>118128127.2070519</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>125310408.4258519</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>125301356.6630519</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>135377386.8391519</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>139990192.7842519</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>137254593.8135519</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>134322015.2544519</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>131941064.7498519</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>132170685.3674519</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>132170685.3674519</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>125889078.1391519</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>128845187.5825519</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>128461669.4130519</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>113405674.4315519</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>139533604.7299519</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>133680403.6187519</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>133682541.0732519</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>133682541.0732519</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>133669052.6159519</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>135677075.0624451</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>133846032.3759451</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>133926974.2395451</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>134528727.2814451</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>132134983.1509001</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>132140885.2489001</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>131732961.2566001</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>131728551.2566001</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>131707156.1052001</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>129622097.4116001</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>130242585.9707001</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>127505106.3588001</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>113914999.3063001</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>113930655.2521001</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>113594198.1174001</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>113605181.7456001</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>115621282.8720001</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>116864281.6546001</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>116894281.6546001</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>119126333.9851001</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>109730049.0711001</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>111115085.2206001</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>111115085.2206001</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>113748877.7901001</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>111750445.7514001</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>112219781.3973001</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>112219781.3973001</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>110500187.6025001</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>109525306.2223001</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>133336521.4487093</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>114707383.8824186</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>105010640.5905186</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>101395022.1660186</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>105057688.0912186</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>102827880.3903186</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>102936838.4532232</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>87356824.14212321</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>80406262.41512321</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>80406262.41512321</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>60701500.49902321</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
